--- a/derivation/plane-divided-by-triangle.xlsx
+++ b/derivation/plane-divided-by-triangle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17520" yWindow="0" windowWidth="11280" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="16240" yWindow="0" windowWidth="12560" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Right-handed numbering" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
